--- a/biology/Médecine/Micro-ARN_22/Micro-ARN_22.xlsx
+++ b/biology/Médecine/Micro-ARN_22/Micro-ARN_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le micro-ARN 22 (miR-22) est un micro-ARN impliqué dans de nombreux processus physiologiques tels que le développement embryonnaire, le métabolisme squelettique, les modifications épigénétiques mais aussi pathologiques comme l'hypertrophie des cellules musculaires cardiaques, le trouble panique et le cancer[2].
-Il a notamment un rôle suppresseur de tumeur[3].
-MiR-22 est exprimé dans de nombreux tissus mais son expression est enrichie dans la vessie, le tissu adipeux, le muscle squelettique, lisse et cardiaque[2],[4].
-Il est localisé sur le petit bras du chromosome 17 (17p13), dans une région fréquemment hyper-méthylée ou délétée en cas de cancer[2]. 
-La séquence de miR-22 est ancienne et fortement conservée par l'évolution ; le plus ancien homologue est retrouvé chez l'oursin pourpre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le micro-ARN 22 (miR-22) est un micro-ARN impliqué dans de nombreux processus physiologiques tels que le développement embryonnaire, le métabolisme squelettique, les modifications épigénétiques mais aussi pathologiques comme l'hypertrophie des cellules musculaires cardiaques, le trouble panique et le cancer.
+Il a notamment un rôle suppresseur de tumeur.
+MiR-22 est exprimé dans de nombreux tissus mais son expression est enrichie dans la vessie, le tissu adipeux, le muscle squelettique, lisse et cardiaque,.
+Il est localisé sur le petit bras du chromosome 17 (17p13), dans une région fréquemment hyper-méthylée ou délétée en cas de cancer. 
+La séquence de miR-22 est ancienne et fortement conservée par l'évolution ; le plus ancien homologue est retrouvé chez l'oursin pourpre.
 </t>
         </is>
       </c>
@@ -515,13 +527,15 @@
           <t>Séquence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'humain, le brin impliqué dans la régulation post-transcriptionnelle majoritairement incorporé au complexe RISC est localisé en 3' du duplex miARN/miARN* mature. 
 Sa séquence est la suivante :
-5'- aagcugccaguugaagaacugu -3' (miR-22-3p, la "graine" est soulignée)[5].
+5'- aagcugccaguugaagaacugu -3' (miR-22-3p, la "graine" est soulignée).
 Chez l'oursin pourpre, la séquence est la suivante :
-5'- uauaugcccggugaaguguaua -3' (miR-22-3p, les différences de séquences apparaissent en gras)[6].
+5'- uauaugcccggugaaguguaua -3' (miR-22-3p, les différences de séquences apparaissent en gras).
 Comme nous pouvons le constater, 11 nucléotides sont conservés sur les 22 que compte ce miRNA, soit un degré d'identité de 50%.
 La probabilité que les séquences humaines et de l'oursin se ressemblent autant de manière aléatoire est, approximativement, de 1 pour 100 millions (
                 1
@@ -565,9 +579,11 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression de miR-22 est régulée par le facteur de transcription p53[3],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression de miR-22 est régulée par le facteur de transcription p53,.
 </t>
         </is>
       </c>
@@ -596,9 +612,11 @@
           <t>Cibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MiR-22 agirait par régulation post-transcriptionnelle de l'expression de gènes comme Akt3 (en) ou HDAC6 (en)[7]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MiR-22 agirait par régulation post-transcriptionnelle de l'expression de gènes comme Akt3 (en) ou HDAC6 (en). 
 </t>
         </is>
       </c>
@@ -627,10 +645,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MiR-22 est régulé lors de la différenciation des cellules musculaires cardiaques[4].
-L'expression de miR-22 augmenterait dans les cellules cardiaques, de manière dépendante de p53, lors du processus de vieillissement normal[7]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MiR-22 est régulé lors de la différenciation des cellules musculaires cardiaques.
+L'expression de miR-22 augmenterait dans les cellules cardiaques, de manière dépendante de p53, lors du processus de vieillissement normal. 
 MiR-22 agirait alors comme inhibiteur du processus d'autophagie cardiaque, processus normalement destiné à "nettoyer" le tissu cardiaques des cellules dysfonctionnelles.
 </t>
         </is>
@@ -662,16 +682,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tumorales
-À la suite de l'exposition à un agent de stress génotoxique (la doxorubicine), l'expression de miR-22 est induite par p53, favorisant la suppression des cellules tumorales par le processus d'apoptose. 
-MiR-22 agirait en ciblant le régulateur du cycle cellulaire p21, conduisant à une diminution de son expression par régulation post-transcriptionnelle, un arrêt du cycle cellulaire et la mort de la cellule tumorale[3].
-Cardiaques
-En cas de stress biomécanique ou pathologique, les cellules musculaires cardiaques s'adaptent en s'hypertrophiant afin de maintenir la fonction cardiaque.
-Cependant, si cette adaptation se prolonge dans le temps et devient chronique, il existe des risques d'insuffisance cardiaque ou de mort subite.
-MiR-22 est surexprimé dans le cas d'une hypertrophie cardiaque et interviendrait notamment dans l'hypertrophie ventriculaire gauche.
-Dans un modèle de souris transgéniques pour lesquelles miR-22 a été délété spécifiquement dans le cœur, des facteurs de stress (isoprotérénol, calcineurine) ne sont plus capables d'induire hypertrophie et remodelage (en) cardiaques[4].
-MiR-22 serait donc le médiateur génétique par lequel un stress biomécanique ou pathologique induirait de l'hypertrophie cardiaque.
-L'inhibition pharmacologique de miR-22, par des acides nucléiques bloqués, libérerait le processus d'autophagie cardiaque et inhiberait ainsi l'hypertrophie cellulaire ; ce faisant, elle limiterait le remodelage post-infarctus et améliorerait la fonction cardiaque[7].
+          <t>Tumorales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'exposition à un agent de stress génotoxique (la doxorubicine), l'expression de miR-22 est induite par p53, favorisant la suppression des cellules tumorales par le processus d'apoptose. 
+MiR-22 agirait en ciblant le régulateur du cycle cellulaire p21, conduisant à une diminution de son expression par régulation post-transcriptionnelle, un arrêt du cycle cellulaire et la mort de la cellule tumorale.
 </t>
         </is>
       </c>
@@ -697,13 +715,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Pathologies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cardiaques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de stress biomécanique ou pathologique, les cellules musculaires cardiaques s'adaptent en s'hypertrophiant afin de maintenir la fonction cardiaque.
+Cependant, si cette adaptation se prolonge dans le temps et devient chronique, il existe des risques d'insuffisance cardiaque ou de mort subite.
+MiR-22 est surexprimé dans le cas d'une hypertrophie cardiaque et interviendrait notamment dans l'hypertrophie ventriculaire gauche.
+Dans un modèle de souris transgéniques pour lesquelles miR-22 a été délété spécifiquement dans le cœur, des facteurs de stress (isoprotérénol, calcineurine) ne sont plus capables d'induire hypertrophie et remodelage (en) cardiaques.
+MiR-22 serait donc le médiateur génétique par lequel un stress biomécanique ou pathologique induirait de l'hypertrophie cardiaque.
+L'inhibition pharmacologique de miR-22, par des acides nucléiques bloqués, libérerait le processus d'autophagie cardiaque et inhiberait ainsi l'hypertrophie cellulaire ; ce faisant, elle limiterait le remodelage post-infarctus et améliorerait la fonction cardiaque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Micro-ARN_22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Micro-ARN_22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biomarqueur</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">MiR-22 pourrait être utilisé comme marqueur biologique permettant le pronostic de certaines pathologies. 
-En effet, un taux élevé de miR-22 circulant a été fortement corrélé à une mortalité précoce chez 154 patients ayant souffert d'insuffisance cardiaque (dysfonction systolique)[7].
+En effet, un taux élevé de miR-22 circulant a été fortement corrélé à une mortalité précoce chez 154 patients ayant souffert d'insuffisance cardiaque (dysfonction systolique).
 </t>
         </is>
       </c>
